--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Ntn1-Unc5b.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Ntn1-Unc5b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +95,6 @@
   </si>
   <si>
     <t>Unc5b</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.1925054074656</v>
+        <v>2.234872</v>
       </c>
       <c r="H2">
-        <v>2.1925054074656</v>
+        <v>6.704616</v>
       </c>
       <c r="I2">
-        <v>0.2818102791681873</v>
+        <v>0.2519183620528573</v>
       </c>
       <c r="J2">
-        <v>0.2818102791681873</v>
+        <v>0.2519183620528573</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.1022727186665</v>
+        <v>12.905221</v>
       </c>
       <c r="N2">
-        <v>12.1022727186665</v>
+        <v>38.715663</v>
       </c>
       <c r="O2">
-        <v>0.5230770743924704</v>
+        <v>0.5346585373998117</v>
       </c>
       <c r="P2">
-        <v>0.5230770743924704</v>
+        <v>0.5346585373998116</v>
       </c>
       <c r="Q2">
-        <v>26.53429837829971</v>
+        <v>28.84151706671199</v>
       </c>
       <c r="R2">
-        <v>26.53429837829971</v>
+        <v>259.573653600408</v>
       </c>
       <c r="S2">
-        <v>0.1474084963610208</v>
+        <v>0.1346903029993369</v>
       </c>
       <c r="T2">
-        <v>0.1474084963610208</v>
+        <v>0.1346903029993369</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.1925054074656</v>
+        <v>2.234872</v>
       </c>
       <c r="H3">
-        <v>2.1925054074656</v>
+        <v>6.704616</v>
       </c>
       <c r="I3">
-        <v>0.2818102791681873</v>
+        <v>0.2519183620528573</v>
       </c>
       <c r="J3">
-        <v>0.2818102791681873</v>
+        <v>0.2519183620528573</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.60333104176412</v>
+        <v>9.643295333333334</v>
       </c>
       <c r="N3">
-        <v>9.60333104176412</v>
+        <v>28.929886</v>
       </c>
       <c r="O3">
-        <v>0.4150693363570034</v>
+        <v>0.3995181623495197</v>
       </c>
       <c r="P3">
-        <v>0.4150693363570034</v>
+        <v>0.3995181623495196</v>
       </c>
       <c r="Q3">
-        <v>21.05535523875009</v>
+        <v>21.55153072819733</v>
       </c>
       <c r="R3">
-        <v>21.05535523875009</v>
+        <v>193.963776553776</v>
       </c>
       <c r="S3">
-        <v>0.1169708055529214</v>
+        <v>0.1006459610694585</v>
       </c>
       <c r="T3">
-        <v>0.1169708055529214</v>
+        <v>0.1006459610694585</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.1925054074656</v>
+        <v>2.234872</v>
       </c>
       <c r="H4">
-        <v>2.1925054074656</v>
+        <v>6.704616</v>
       </c>
       <c r="I4">
-        <v>0.2818102791681873</v>
+        <v>0.2519183620528573</v>
       </c>
       <c r="J4">
-        <v>0.2818102791681873</v>
+        <v>0.2519183620528573</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.0525132950038913</v>
+        <v>0.06939466666666666</v>
       </c>
       <c r="N4">
-        <v>0.0525132950038913</v>
+        <v>0.208184</v>
       </c>
       <c r="O4">
-        <v>0.002269697713469709</v>
+        <v>0.002874995397858546</v>
       </c>
       <c r="P4">
-        <v>0.002269697713469709</v>
+        <v>0.002874995397858546</v>
       </c>
       <c r="Q4">
-        <v>0.1151356832598679</v>
+        <v>0.1550881974826666</v>
       </c>
       <c r="R4">
-        <v>0.1151356832598679</v>
+        <v>1.395793777344</v>
       </c>
       <c r="S4">
-        <v>0.0006396241462602952</v>
+        <v>0.0007242641315380277</v>
       </c>
       <c r="T4">
-        <v>0.0006396241462602952</v>
+        <v>0.0007242641315380278</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.1925054074656</v>
+        <v>2.234872</v>
       </c>
       <c r="H5">
-        <v>2.1925054074656</v>
+        <v>6.704616</v>
       </c>
       <c r="I5">
-        <v>0.2818102791681873</v>
+        <v>0.2519183620528573</v>
       </c>
       <c r="J5">
-        <v>0.2818102791681873</v>
+        <v>0.2519183620528573</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.37857409609937</v>
+        <v>1.519403</v>
       </c>
       <c r="N5">
-        <v>1.37857409609937</v>
+        <v>4.558209</v>
       </c>
       <c r="O5">
-        <v>0.05958389153705652</v>
+        <v>0.06294830485281004</v>
       </c>
       <c r="P5">
-        <v>0.05958389153705652</v>
+        <v>0.06294830485281004</v>
       </c>
       <c r="Q5">
-        <v>3.022531160289871</v>
+        <v>3.395671221415999</v>
       </c>
       <c r="R5">
-        <v>3.022531160289871</v>
+        <v>30.561040992744</v>
       </c>
       <c r="S5">
-        <v>0.01679135310798489</v>
+        <v>0.01585783385252383</v>
       </c>
       <c r="T5">
-        <v>0.01679135310798489</v>
+        <v>0.01585783385252384</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.14812814499138</v>
+        <v>3.185577</v>
       </c>
       <c r="H6">
-        <v>3.14812814499138</v>
+        <v>9.556730999999999</v>
       </c>
       <c r="I6">
-        <v>0.4046397643428244</v>
+        <v>0.3590833569140671</v>
       </c>
       <c r="J6">
-        <v>0.4046397643428244</v>
+        <v>0.3590833569140671</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.1022727186665</v>
+        <v>12.905221</v>
       </c>
       <c r="N6">
-        <v>12.1022727186665</v>
+        <v>38.715663</v>
       </c>
       <c r="O6">
-        <v>0.5230770743924704</v>
+        <v>0.5346585373998117</v>
       </c>
       <c r="P6">
-        <v>0.5230770743924704</v>
+        <v>0.5346585373998116</v>
       </c>
       <c r="Q6">
-        <v>38.09950536399536</v>
+        <v>41.11057519751699</v>
       </c>
       <c r="R6">
-        <v>38.09950536399536</v>
+        <v>369.9951767776529</v>
       </c>
       <c r="S6">
-        <v>0.2116577841153033</v>
+        <v>0.1919869824122897</v>
       </c>
       <c r="T6">
-        <v>0.2116577841153033</v>
+        <v>0.1919869824122896</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.14812814499138</v>
+        <v>3.185577</v>
       </c>
       <c r="H7">
-        <v>3.14812814499138</v>
+        <v>9.556730999999999</v>
       </c>
       <c r="I7">
-        <v>0.4046397643428244</v>
+        <v>0.3590833569140671</v>
       </c>
       <c r="J7">
-        <v>0.4046397643428244</v>
+        <v>0.3590833569140671</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.60333104176412</v>
+        <v>9.643295333333334</v>
       </c>
       <c r="N7">
-        <v>9.60333104176412</v>
+        <v>28.929886</v>
       </c>
       <c r="O7">
-        <v>0.4150693363570034</v>
+        <v>0.3995181623495197</v>
       </c>
       <c r="P7">
-        <v>0.4150693363570034</v>
+        <v>0.3995181623495196</v>
       </c>
       <c r="Q7">
-        <v>30.23251673824702</v>
+        <v>30.719459818074</v>
       </c>
       <c r="R7">
-        <v>30.23251673824702</v>
+        <v>276.475138362666</v>
       </c>
       <c r="S7">
-        <v>0.1679535584494304</v>
+        <v>0.1434603228846048</v>
       </c>
       <c r="T7">
-        <v>0.1679535584494304</v>
+        <v>0.1434603228846048</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.14812814499138</v>
+        <v>3.185577</v>
       </c>
       <c r="H8">
-        <v>3.14812814499138</v>
+        <v>9.556730999999999</v>
       </c>
       <c r="I8">
-        <v>0.4046397643428244</v>
+        <v>0.3590833569140671</v>
       </c>
       <c r="J8">
-        <v>0.4046397643428244</v>
+        <v>0.3590833569140671</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.0525132950038913</v>
+        <v>0.06939466666666666</v>
       </c>
       <c r="N8">
-        <v>0.0525132950038913</v>
+        <v>0.208184</v>
       </c>
       <c r="O8">
-        <v>0.002269697713469709</v>
+        <v>0.002874995397858546</v>
       </c>
       <c r="P8">
-        <v>0.002269697713469709</v>
+        <v>0.002874995397858546</v>
       </c>
       <c r="Q8">
-        <v>0.1653185819879854</v>
+        <v>0.221062054056</v>
       </c>
       <c r="R8">
-        <v>0.1653185819879854</v>
+        <v>1.989558486504</v>
       </c>
       <c r="S8">
-        <v>0.0009184099479078304</v>
+        <v>0.001032362998575541</v>
       </c>
       <c r="T8">
-        <v>0.0009184099479078304</v>
+        <v>0.001032362998575541</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.14812814499138</v>
+        <v>3.185577</v>
       </c>
       <c r="H9">
-        <v>3.14812814499138</v>
+        <v>9.556730999999999</v>
       </c>
       <c r="I9">
-        <v>0.4046397643428244</v>
+        <v>0.3590833569140671</v>
       </c>
       <c r="J9">
-        <v>0.4046397643428244</v>
+        <v>0.3590833569140671</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.37857409609937</v>
+        <v>1.519403</v>
       </c>
       <c r="N9">
-        <v>1.37857409609937</v>
+        <v>4.558209</v>
       </c>
       <c r="O9">
-        <v>0.05958389153705652</v>
+        <v>0.06294830485281004</v>
       </c>
       <c r="P9">
-        <v>0.05958389153705652</v>
+        <v>0.06294830485281004</v>
       </c>
       <c r="Q9">
-        <v>4.339927911886478</v>
+        <v>4.840175250530999</v>
       </c>
       <c r="R9">
-        <v>4.339927911886478</v>
+        <v>43.561577254779</v>
       </c>
       <c r="S9">
-        <v>0.02411001183018296</v>
+        <v>0.02260368861859709</v>
       </c>
       <c r="T9">
-        <v>0.02411001183018296</v>
+        <v>0.02260368861859709</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1021,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>2.43944251125924</v>
+        <v>0.3858173333333334</v>
       </c>
       <c r="H10">
-        <v>2.43944251125924</v>
+        <v>1.157452</v>
       </c>
       <c r="I10">
-        <v>0.3135499564889883</v>
+        <v>0.04348994961006027</v>
       </c>
       <c r="J10">
-        <v>0.3135499564889883</v>
+        <v>0.04348994961006027</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.1022727186665</v>
+        <v>12.905221</v>
       </c>
       <c r="N10">
-        <v>12.1022727186665</v>
+        <v>38.715663</v>
       </c>
       <c r="O10">
-        <v>0.5230770743924704</v>
+        <v>0.5346585373998117</v>
       </c>
       <c r="P10">
-        <v>0.5230770743924704</v>
+        <v>0.5346585373998116</v>
       </c>
       <c r="Q10">
-        <v>29.52279855276799</v>
+        <v>4.979057952297334</v>
       </c>
       <c r="R10">
-        <v>29.52279855276799</v>
+        <v>44.81152157067601</v>
       </c>
       <c r="S10">
-        <v>0.1640107939161464</v>
+        <v>0.02325227285010634</v>
       </c>
       <c r="T10">
-        <v>0.1640107939161464</v>
+        <v>0.02325227285010633</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1083,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>2.43944251125924</v>
+        <v>0.3858173333333334</v>
       </c>
       <c r="H11">
-        <v>2.43944251125924</v>
+        <v>1.157452</v>
       </c>
       <c r="I11">
-        <v>0.3135499564889883</v>
+        <v>0.04348994961006027</v>
       </c>
       <c r="J11">
-        <v>0.3135499564889883</v>
+        <v>0.04348994961006027</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.60333104176412</v>
+        <v>9.643295333333334</v>
       </c>
       <c r="N11">
-        <v>9.60333104176412</v>
+        <v>28.929886</v>
       </c>
       <c r="O11">
-        <v>0.4150693363570034</v>
+        <v>0.3995181623495197</v>
       </c>
       <c r="P11">
-        <v>0.4150693363570034</v>
+        <v>0.3995181623495196</v>
       </c>
       <c r="Q11">
-        <v>23.42677399297488</v>
+        <v>3.720550490052446</v>
       </c>
       <c r="R11">
-        <v>23.42677399297488</v>
+        <v>33.48495441047201</v>
       </c>
       <c r="S11">
-        <v>0.1301449723546516</v>
+        <v>0.01737502474888449</v>
       </c>
       <c r="T11">
-        <v>0.1301449723546516</v>
+        <v>0.01737502474888449</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>2.43944251125924</v>
+        <v>0.3858173333333334</v>
       </c>
       <c r="H12">
-        <v>2.43944251125924</v>
+        <v>1.157452</v>
       </c>
       <c r="I12">
-        <v>0.3135499564889883</v>
+        <v>0.04348994961006027</v>
       </c>
       <c r="J12">
-        <v>0.3135499564889883</v>
+        <v>0.04348994961006027</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.0525132950038913</v>
+        <v>0.06939466666666666</v>
       </c>
       <c r="N12">
-        <v>0.0525132950038913</v>
+        <v>0.208184</v>
       </c>
       <c r="O12">
-        <v>0.002269697713469709</v>
+        <v>0.002874995397858546</v>
       </c>
       <c r="P12">
-        <v>0.002269697713469709</v>
+        <v>0.002874995397858546</v>
       </c>
       <c r="Q12">
-        <v>0.1281031642387899</v>
+        <v>0.02677366524088889</v>
       </c>
       <c r="R12">
-        <v>0.1281031642387899</v>
+        <v>0.240962987168</v>
       </c>
       <c r="S12">
-        <v>0.0007116636193015834</v>
+        <v>0.0001250334049820234</v>
       </c>
       <c r="T12">
-        <v>0.0007116636193015834</v>
+        <v>0.0001250334049820233</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1207,557 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.3858173333333334</v>
+      </c>
+      <c r="H13">
+        <v>1.157452</v>
+      </c>
+      <c r="I13">
+        <v>0.04348994961006027</v>
+      </c>
+      <c r="J13">
+        <v>0.04348994961006027</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.519403</v>
+      </c>
+      <c r="N13">
+        <v>4.558209</v>
+      </c>
+      <c r="O13">
+        <v>0.06294830485281004</v>
+      </c>
+      <c r="P13">
+        <v>0.06294830485281004</v>
+      </c>
+      <c r="Q13">
+        <v>0.5862120137186667</v>
+      </c>
+      <c r="R13">
+        <v>5.275908123468001</v>
+      </c>
+      <c r="S13">
+        <v>0.002737618606087421</v>
+      </c>
+      <c r="T13">
+        <v>0.002737618606087421</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.2982303333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.894691</v>
+      </c>
+      <c r="I14">
+        <v>0.03361700226581701</v>
+      </c>
+      <c r="J14">
+        <v>0.03361700226581701</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>12.905221</v>
+      </c>
+      <c r="N14">
+        <v>38.715663</v>
+      </c>
+      <c r="O14">
+        <v>0.5346585373998117</v>
+      </c>
+      <c r="P14">
+        <v>0.5346585373998116</v>
+      </c>
+      <c r="Q14">
+        <v>3.848728360570333</v>
+      </c>
+      <c r="R14">
+        <v>34.638555245133</v>
+      </c>
+      <c r="S14">
+        <v>0.01797361726320788</v>
+      </c>
+      <c r="T14">
+        <v>0.01797361726320788</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.2982303333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.894691</v>
+      </c>
+      <c r="I15">
+        <v>0.03361700226581701</v>
+      </c>
+      <c r="J15">
+        <v>0.03361700226581701</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>9.643295333333334</v>
+      </c>
+      <c r="N15">
+        <v>28.929886</v>
+      </c>
+      <c r="O15">
+        <v>0.3995181623495197</v>
+      </c>
+      <c r="P15">
+        <v>0.3995181623495196</v>
+      </c>
+      <c r="Q15">
+        <v>2.875923181691778</v>
+      </c>
+      <c r="R15">
+        <v>25.883308635226</v>
+      </c>
+      <c r="S15">
+        <v>0.01343060296893885</v>
+      </c>
+      <c r="T15">
+        <v>0.01343060296893885</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.2982303333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.894691</v>
+      </c>
+      <c r="I16">
+        <v>0.03361700226581701</v>
+      </c>
+      <c r="J16">
+        <v>0.03361700226581701</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.06939466666666666</v>
+      </c>
+      <c r="N16">
+        <v>0.208184</v>
+      </c>
+      <c r="O16">
+        <v>0.002874995397858546</v>
+      </c>
+      <c r="P16">
+        <v>0.002874995397858546</v>
+      </c>
+      <c r="Q16">
+        <v>0.02069559457155555</v>
+      </c>
+      <c r="R16">
+        <v>0.186260351144</v>
+      </c>
+      <c r="S16">
+        <v>9.664872680402422E-05</v>
+      </c>
+      <c r="T16">
+        <v>9.664872680402423E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>2.43944251125924</v>
-      </c>
-      <c r="H13">
-        <v>2.43944251125924</v>
-      </c>
-      <c r="I13">
-        <v>0.3135499564889883</v>
-      </c>
-      <c r="J13">
-        <v>0.3135499564889883</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.37857409609937</v>
-      </c>
-      <c r="N13">
-        <v>1.37857409609937</v>
-      </c>
-      <c r="O13">
-        <v>0.05958389153705652</v>
-      </c>
-      <c r="P13">
-        <v>0.05958389153705652</v>
-      </c>
-      <c r="Q13">
-        <v>3.362952254945584</v>
-      </c>
-      <c r="R13">
-        <v>3.362952254945584</v>
-      </c>
-      <c r="S13">
-        <v>0.01868252659888867</v>
-      </c>
-      <c r="T13">
-        <v>0.01868252659888867</v>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.2982303333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.894691</v>
+      </c>
+      <c r="I17">
+        <v>0.03361700226581701</v>
+      </c>
+      <c r="J17">
+        <v>0.03361700226581701</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.519403</v>
+      </c>
+      <c r="N17">
+        <v>4.558209</v>
+      </c>
+      <c r="O17">
+        <v>0.06294830485281004</v>
+      </c>
+      <c r="P17">
+        <v>0.06294830485281004</v>
+      </c>
+      <c r="Q17">
+        <v>0.4531320631576666</v>
+      </c>
+      <c r="R17">
+        <v>4.078188568419</v>
+      </c>
+      <c r="S17">
+        <v>0.002116133306866255</v>
+      </c>
+      <c r="T17">
+        <v>0.002116133306866255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2.766917</v>
+      </c>
+      <c r="H18">
+        <v>8.300751</v>
+      </c>
+      <c r="I18">
+        <v>0.3118913291571982</v>
+      </c>
+      <c r="J18">
+        <v>0.3118913291571982</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>12.905221</v>
+      </c>
+      <c r="N18">
+        <v>38.715663</v>
+      </c>
+      <c r="O18">
+        <v>0.5346585373998117</v>
+      </c>
+      <c r="P18">
+        <v>0.5346585373998116</v>
+      </c>
+      <c r="Q18">
+        <v>35.707675373657</v>
+      </c>
+      <c r="R18">
+        <v>321.369078362913</v>
+      </c>
+      <c r="S18">
+        <v>0.1667553618748708</v>
+      </c>
+      <c r="T18">
+        <v>0.1667553618748708</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.766917</v>
+      </c>
+      <c r="H19">
+        <v>8.300751</v>
+      </c>
+      <c r="I19">
+        <v>0.3118913291571982</v>
+      </c>
+      <c r="J19">
+        <v>0.3118913291571982</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>9.643295333333334</v>
+      </c>
+      <c r="N19">
+        <v>28.929886</v>
+      </c>
+      <c r="O19">
+        <v>0.3995181623495197</v>
+      </c>
+      <c r="P19">
+        <v>0.3995181623495196</v>
+      </c>
+      <c r="Q19">
+        <v>26.68219779382067</v>
+      </c>
+      <c r="R19">
+        <v>240.139780144386</v>
+      </c>
+      <c r="S19">
+        <v>0.124606250677633</v>
+      </c>
+      <c r="T19">
+        <v>0.124606250677633</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.766917</v>
+      </c>
+      <c r="H20">
+        <v>8.300751</v>
+      </c>
+      <c r="I20">
+        <v>0.3118913291571982</v>
+      </c>
+      <c r="J20">
+        <v>0.3118913291571982</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.06939466666666666</v>
+      </c>
+      <c r="N20">
+        <v>0.208184</v>
+      </c>
+      <c r="O20">
+        <v>0.002874995397858546</v>
+      </c>
+      <c r="P20">
+        <v>0.002874995397858546</v>
+      </c>
+      <c r="Q20">
+        <v>0.1920092829093333</v>
+      </c>
+      <c r="R20">
+        <v>1.728083546184</v>
+      </c>
+      <c r="S20">
+        <v>0.0008966861359589299</v>
+      </c>
+      <c r="T20">
+        <v>0.0008966861359589297</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.766917</v>
+      </c>
+      <c r="H21">
+        <v>8.300751</v>
+      </c>
+      <c r="I21">
+        <v>0.3118913291571982</v>
+      </c>
+      <c r="J21">
+        <v>0.3118913291571982</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.519403</v>
+      </c>
+      <c r="N21">
+        <v>4.558209</v>
+      </c>
+      <c r="O21">
+        <v>0.06294830485281004</v>
+      </c>
+      <c r="P21">
+        <v>0.06294830485281004</v>
+      </c>
+      <c r="Q21">
+        <v>4.204061990551</v>
+      </c>
+      <c r="R21">
+        <v>37.83655791495899</v>
+      </c>
+      <c r="S21">
+        <v>0.01963303046873543</v>
+      </c>
+      <c r="T21">
+        <v>0.01963303046873543</v>
       </c>
     </row>
   </sheetData>
